--- a/Data_Demo.xlsx
+++ b/Data_Demo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr dateCompatibility="0"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DoTanLoc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayng\GitHub\CRM\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4AC4F082-028D-413F-8EA1-BBFAE7E818C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,131 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="44" uniqueCount="44">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="25" uniqueCount="25">
   <si>
     <t>Họ tên</t>
   </si>
   <si>
-    <t>20,000,000</t>
-  </si>
-  <si>
-    <t>Lộc 1</t>
-  </si>
-  <si>
-    <t>Lộc 2</t>
-  </si>
-  <si>
-    <t>20,000,001</t>
-  </si>
-  <si>
-    <t>Lộc 3</t>
-  </si>
-  <si>
-    <t>20,000,002</t>
-  </si>
-  <si>
-    <t>Lộc 4</t>
-  </si>
-  <si>
-    <t>20,000,003</t>
-  </si>
-  <si>
-    <t>Lộc 5</t>
-  </si>
-  <si>
-    <t>20,000,004</t>
-  </si>
-  <si>
-    <t>21,000,000</t>
-  </si>
-  <si>
-    <t>Lộc 6</t>
-  </si>
-  <si>
-    <t>Lộc 7</t>
-  </si>
-  <si>
-    <t>Lộc 8</t>
-  </si>
-  <si>
-    <t>Lộc 9</t>
-  </si>
-  <si>
-    <t>Lộc 10</t>
-  </si>
-  <si>
-    <t>Lộc 11</t>
-  </si>
-  <si>
-    <t>20,000,005</t>
-  </si>
-  <si>
-    <t>Lộc 12</t>
-  </si>
-  <si>
-    <t>Lộc 13</t>
-  </si>
-  <si>
-    <t>20,000,006</t>
-  </si>
-  <si>
-    <t>21,000,001</t>
-  </si>
-  <si>
-    <t>21,000,002</t>
-  </si>
-  <si>
-    <t>21,000,003</t>
-  </si>
-  <si>
-    <t>21,000,004</t>
-  </si>
-  <si>
-    <t>21,000,005</t>
-  </si>
-  <si>
-    <t>Lộc 14</t>
-  </si>
-  <si>
-    <t>21,000,006</t>
-  </si>
-  <si>
-    <t>Lộc 15</t>
-  </si>
-  <si>
-    <t>20,000,007</t>
-  </si>
-  <si>
-    <t>Lộc 16</t>
-  </si>
-  <si>
-    <t>21,000,007</t>
-  </si>
-  <si>
-    <t>Lộc 17</t>
-  </si>
-  <si>
-    <t>20,000,008</t>
-  </si>
-  <si>
-    <t>Lộc 18</t>
-  </si>
-  <si>
-    <t>21,000,008</t>
-  </si>
-  <si>
-    <t>Lộc 19</t>
-  </si>
-  <si>
-    <t>20,000,009</t>
-  </si>
-  <si>
-    <t>Lộc 20</t>
-  </si>
-  <si>
-    <t>21,000,009</t>
-  </si>
-  <si>
     <t>Han muc 123</t>
   </si>
   <si>
@@ -159,13 +40,80 @@
   </si>
   <si>
     <t>1cmnd</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ MỸ PHƯỢNG</t>
+  </si>
+  <si>
+    <t>272034366</t>
+  </si>
+  <si>
+    <t>84903829995</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ OANH</t>
+  </si>
+  <si>
+    <t>331542759</t>
+  </si>
+  <si>
+    <t>84977402836</t>
+  </si>
+  <si>
+    <t>HUỲNH THỊ HOA</t>
+  </si>
+  <si>
+    <t>381436624</t>
+  </si>
+  <si>
+    <t>84904031140</t>
+  </si>
+  <si>
+    <t>PHAN VĂN QUANG</t>
+  </si>
+  <si>
+    <t>205423264</t>
+  </si>
+  <si>
+    <t>84933029419</t>
+  </si>
+  <si>
+    <t>Trần Xuân Huy</t>
+  </si>
+  <si>
+    <t>264499196</t>
+  </si>
+  <si>
+    <t>84966408652</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ KIM NGÂN</t>
+  </si>
+  <si>
+    <t>365231151</t>
+  </si>
+  <si>
+    <t>84338759341</t>
+  </si>
+  <si>
+    <t>PHẠM THỊ NHANH EM</t>
+  </si>
+  <si>
+    <t>321307413</t>
+  </si>
+  <si>
+    <t>84971579179</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,13 +134,26 @@
       <name val="Times Newer Roman"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Newer Roman"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,15 +165,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,11 +489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,303 +511,185 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15.75">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>312476797</v>
-      </c>
-      <c r="C2" s="2">
-        <v>84327501461</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>312476798</v>
-      </c>
-      <c r="C3" s="2">
-        <v>84327501462</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>312476799</v>
-      </c>
-      <c r="C4" s="2">
-        <v>84327501463</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>312476800</v>
-      </c>
-      <c r="C5" s="2">
-        <v>84327501464</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>312476801</v>
-      </c>
-      <c r="C6" s="2">
-        <v>84327501465</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>312476802</v>
-      </c>
-      <c r="C7" s="2">
-        <v>84327501466</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2">
-        <v>312476803</v>
-      </c>
-      <c r="C8" s="2">
-        <v>84327501467</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2">
-        <v>312476804</v>
-      </c>
-      <c r="C9" s="2">
-        <v>84327501468</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
-        <v>312476805</v>
-      </c>
-      <c r="C10" s="2">
-        <v>84327501469</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>312476806</v>
-      </c>
-      <c r="C11" s="2">
-        <v>84327501470</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2">
-        <v>312476807</v>
-      </c>
-      <c r="C12" s="2">
-        <v>84327501471</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2">
-        <v>312476808</v>
-      </c>
-      <c r="C13" s="2">
-        <v>84327501472</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2">
-        <v>312476809</v>
-      </c>
-      <c r="C14" s="2">
-        <v>84327501473</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2">
-        <v>312476810</v>
-      </c>
-      <c r="C15" s="2">
-        <v>84327501474</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="15.75">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2">
-        <v>312476811</v>
-      </c>
-      <c r="C16" s="2">
-        <v>84327501475</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2">
-        <v>312476812</v>
-      </c>
-      <c r="C17" s="2">
-        <v>84327501476</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2">
-        <v>312476813</v>
-      </c>
-      <c r="C18" s="2">
-        <v>84327501477</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2">
-        <v>312476814</v>
-      </c>
-      <c r="C19" s="2">
-        <v>84327501478</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="15.75">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2">
-        <v>312476815</v>
-      </c>
-      <c r="C20" s="2">
-        <v>84327501479</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="15.75">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="2">
-        <v>312476816</v>
-      </c>
-      <c r="C21" s="2">
-        <v>84327501480</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data_Demo.xlsx
+++ b/Data_Demo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayng\GitHub\CRM\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4AC4F082-028D-413F-8EA1-BBFAE7E818C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="25" uniqueCount="25">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="32" uniqueCount="32">
   <si>
     <t>Họ tên</t>
   </si>
@@ -103,15 +102,36 @@
   </si>
   <si>
     <t>84971579179</t>
+  </si>
+  <si>
+    <t>10,000,000</t>
+  </si>
+  <si>
+    <t>10,000,001</t>
+  </si>
+  <si>
+    <t>10,000,002</t>
+  </si>
+  <si>
+    <t>10,000,003</t>
+  </si>
+  <si>
+    <t>10,000,004</t>
+  </si>
+  <si>
+    <t>10,000,005</t>
+  </si>
+  <si>
+    <t>10,000,006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₫&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -167,17 +187,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,17 +509,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
@@ -530,7 +550,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -542,7 +564,9 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -554,7 +578,9 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" t="s">
@@ -566,7 +592,9 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="15.75">
@@ -579,7 +607,9 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="15.75">
@@ -592,7 +622,9 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="15.75">
@@ -605,7 +637,9 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="15.75">

--- a/Data_Demo.xlsx
+++ b/Data_Demo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr dateCompatibility="0"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayng\GitHub\CRM\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{91A8F023-94AC-4138-BC7B-70005907196A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="32" uniqueCount="32">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="25" uniqueCount="25">
   <si>
     <t>Họ tên</t>
   </si>
@@ -102,36 +103,15 @@
   </si>
   <si>
     <t>84971579179</t>
-  </si>
-  <si>
-    <t>10,000,000</t>
-  </si>
-  <si>
-    <t>10,000,001</t>
-  </si>
-  <si>
-    <t>10,000,002</t>
-  </si>
-  <si>
-    <t>10,000,003</t>
-  </si>
-  <si>
-    <t>10,000,004</t>
-  </si>
-  <si>
-    <t>10,000,005</t>
-  </si>
-  <si>
-    <t>10,000,006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₫&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₫&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -187,14 +167,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -509,11 +489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,8 +530,8 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
+      <c r="D2" s="4">
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -564,8 +544,8 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
+      <c r="D3" s="4">
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -578,8 +558,8 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
+      <c r="D4" s="4">
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
@@ -592,8 +572,8 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
+      <c r="D5" s="4">
+        <v>365</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -607,8 +587,8 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
+      <c r="D6" s="4">
+        <v>365</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -622,8 +602,8 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
+      <c r="D7" s="4">
+        <v>365</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -637,8 +617,8 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
+      <c r="D8" s="4">
+        <v>365</v>
       </c>
       <c r="E8" s="2"/>
     </row>

--- a/Data_Demo.xlsx
+++ b/Data_Demo.xlsx
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="32" uniqueCount="32">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="24" uniqueCount="24">
   <si>
     <t>Họ tên</t>
   </si>
   <si>
-    <t>Han muc 123</t>
-  </si>
-  <si>
     <t>Số điện thoạiasd</t>
   </si>
   <si>
@@ -102,38 +99,13 @@
   </si>
   <si>
     <t>84971579179</t>
-  </si>
-  <si>
-    <t>10,000,000</t>
-  </si>
-  <si>
-    <t>10,000,001</t>
-  </si>
-  <si>
-    <t>10,000,002</t>
-  </si>
-  <si>
-    <t>10,000,003</t>
-  </si>
-  <si>
-    <t>10,000,004</t>
-  </si>
-  <si>
-    <t>10,000,005</t>
-  </si>
-  <si>
-    <t>10,000,006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₫&quot;"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,13 +124,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times Newer Roman"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times Newer Roman"/>
-      <family val="2"/>
       <charset val="163"/>
     </font>
   </fonts>
@@ -185,19 +150,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,7 +475,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -531,114 +493,96 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="15.75">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="15.75">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="15.75">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -646,84 +590,71 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="15.75">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="15.75">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75">
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75">
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75">
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75">
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75">
+    </row>
+    <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data_Demo.xlsx
+++ b/Data_Demo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="24" uniqueCount="24">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="25" uniqueCount="25">
   <si>
     <t>Họ tên</t>
   </si>
@@ -99,13 +99,20 @@
   </si>
   <si>
     <t>84971579179</t>
+  </si>
+  <si>
+    <t>hạn mức</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +131,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times Newer Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Newer Roman"/>
+      <family val="2"/>
       <charset val="163"/>
     </font>
   </fonts>
@@ -150,16 +164,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,7 +492,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -498,7 +515,9 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A2" t="s">
@@ -510,9 +529,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
+      <c r="D2" s="4">
+        <v>9935609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -522,9 +543,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
+      <c r="D3" s="4">
+        <v>14141922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -534,9 +557,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
+      <c r="D4" s="4">
+        <v>9567946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -546,10 +571,11 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
+      <c r="D5" s="4">
+        <v>30436300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -559,10 +585,11 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
+      <c r="D6" s="4">
+        <v>29400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -572,9 +599,11 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
+      <c r="D7" s="4">
+        <v>6847232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -584,13 +613,14 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="D8" s="4">
+        <v>6847232</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="2"/>
@@ -601,7 +631,6 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="2"/>

--- a/Data_Demo.xlsx
+++ b/Data_Demo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr dateCompatibility="0"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayng\GitHub\CRM\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C94A5D2C-9C17-4ADA-89BC-4E803AB7761C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="25" uniqueCount="25">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="26" uniqueCount="26">
   <si>
     <t>Họ tên</t>
   </si>
@@ -102,14 +103,17 @@
   </si>
   <si>
     <t>hạn mức</t>
+  </si>
+  <si>
+    <t>số tài khoản</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
@@ -166,7 +170,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -488,11 +492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,6 +522,9 @@
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15.75">
       <c r="A2" t="s">
@@ -531,6 +538,9 @@
       </c>
       <c r="D2" s="4">
         <v>9935609</v>
+      </c>
+      <c r="E2" s="1">
+        <v>31132343</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/Data_Demo.xlsx
+++ b/Data_Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayng\GitHub\CRM\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C94A5D2C-9C17-4ADA-89BC-4E803AB7761C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{39EF424B-DCFB-47C5-9836-9ED6C5378036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>331542759</t>
   </si>
   <si>
-    <t>84977402836</t>
-  </si>
-  <si>
     <t>HUỲNH THỊ HOA</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>264499196</t>
   </si>
   <si>
-    <t>84966408652</t>
-  </si>
-  <si>
     <t>NGUYỄN THỊ KIM NGÂN</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>số tài khoản</t>
+  </si>
+  <si>
+    <t>+84977402836</t>
+  </si>
+  <si>
+    <t>084966408652</t>
   </si>
 </sst>
 </file>
@@ -172,12 +172,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -496,7 +497,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15.75">
@@ -550,8 +551,8 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="4">
         <v>14141922</v>
@@ -559,13 +560,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="4">
         <v>9567946</v>
@@ -573,13 +574,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="4">
         <v>30436300</v>
@@ -587,13 +588,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="4">
         <v>29400000</v>
@@ -601,13 +602,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="4">
         <v>6847232</v>
@@ -615,13 +616,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
       </c>
       <c r="D8" s="4">
         <v>6847232</v>
